--- a/parabolic/2025/08/13/parabolic.xlsx
+++ b/parabolic/2025/08/13/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D2" t="n">
-        <v>638000</v>
+        <v>728100</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>4814</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>167</v>
+        <v>948</v>
       </c>
       <c r="D3" t="n">
-        <v>127000</v>
+        <v>979800</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>6194</t>
+          <t>4814</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>830</v>
+        <v>166</v>
       </c>
       <c r="D4" t="n">
-        <v>301500</v>
+        <v>178400</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>6727</t>
+          <t>6194</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>733</v>
+        <v>828</v>
       </c>
       <c r="D5" t="n">
-        <v>175300</v>
+        <v>391100</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,19 +565,19 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>7071</t>
+          <t>6727</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>625</v>
+        <v>733</v>
       </c>
       <c r="D6" t="n">
-        <v>162900</v>
+        <v>254800</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,19 +588,19 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>7205</t>
+          <t>7071</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>388.3999938964844</v>
+        <v>625</v>
       </c>
       <c r="D7" t="n">
-        <v>2677200</v>
+        <v>162900</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>8887</t>
+          <t>7205</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,16 +620,85 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>385</v>
+        <v>386.8999938964844</v>
       </c>
       <c r="D8" t="n">
-        <v>134900</v>
+        <v>4695300</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>7822</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>244</v>
+      </c>
+      <c r="D9" t="n">
+        <v>164500</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>8887</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>385</v>
+      </c>
+      <c r="D10" t="n">
+        <v>203500</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>9425</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>609</v>
+      </c>
+      <c r="D11" t="n">
+        <v>132100</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/13/parabolic.xlsx
+++ b/parabolic/2025/08/13/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D2" t="n">
-        <v>728100</v>
+        <v>772900</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D3" t="n">
-        <v>979800</v>
+        <v>1440400</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -531,7 +531,7 @@
         <v>166</v>
       </c>
       <c r="D4" t="n">
-        <v>178400</v>
+        <v>184300</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>6194</t>
+          <t>4840</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>828</v>
+        <v>406</v>
       </c>
       <c r="D5" t="n">
-        <v>391100</v>
+        <v>259900</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>6727</t>
+          <t>6194</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>733</v>
+        <v>819</v>
       </c>
       <c r="D6" t="n">
-        <v>254800</v>
+        <v>490100</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,19 +588,19 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>7071</t>
+          <t>6440</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>625</v>
+        <v>410</v>
       </c>
       <c r="D7" t="n">
-        <v>162900</v>
+        <v>121700</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>7205</t>
+          <t>6727</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>386.8999938964844</v>
+        <v>740</v>
       </c>
       <c r="D8" t="n">
-        <v>4695300</v>
+        <v>485300</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,19 +634,19 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>7822</t>
+          <t>7071</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-08-13</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>244</v>
+        <v>625</v>
       </c>
       <c r="D9" t="n">
-        <v>164500</v>
+        <v>162900</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>8887</t>
+          <t>7205</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>385</v>
+        <v>388.2999877929688</v>
       </c>
       <c r="D10" t="n">
-        <v>203500</v>
+        <v>6026100</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>9425</t>
+          <t>7822</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,16 +689,62 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>609</v>
+        <v>286</v>
       </c>
       <c r="D11" t="n">
-        <v>132100</v>
+        <v>5129700</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>8887</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>385</v>
+      </c>
+      <c r="D12" t="n">
+        <v>236300</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>9425</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>611</v>
+      </c>
+      <c r="D13" t="n">
+        <v>161400</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/13/parabolic.xlsx
+++ b/parabolic/2025/08/13/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>3753</t>
+          <t>2196</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D2" t="n">
-        <v>772900</v>
+        <v>130600</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>3649</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>946</v>
+        <v>762</v>
       </c>
       <c r="D3" t="n">
-        <v>1440400</v>
+        <v>112900</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>4814</t>
+          <t>3753</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>166</v>
+        <v>250</v>
       </c>
       <c r="D4" t="n">
-        <v>184300</v>
+        <v>915200</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>4840</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>406</v>
+        <v>936</v>
       </c>
       <c r="D5" t="n">
-        <v>259900</v>
+        <v>1816800</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>6194</t>
+          <t>4814</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>819</v>
+        <v>167</v>
       </c>
       <c r="D6" t="n">
-        <v>490100</v>
+        <v>197700</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>6440</t>
+          <t>4840</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D7" t="n">
-        <v>121700</v>
+        <v>263100</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>6727</t>
+          <t>6194</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>740</v>
+        <v>807</v>
       </c>
       <c r="D8" t="n">
-        <v>485300</v>
+        <v>658200</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,19 +634,19 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>7071</t>
+          <t>6440</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>625</v>
+        <v>414</v>
       </c>
       <c r="D9" t="n">
-        <v>162900</v>
+        <v>152700</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>7205</t>
+          <t>6727</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>388.2999877929688</v>
+        <v>739</v>
       </c>
       <c r="D10" t="n">
-        <v>6026100</v>
+        <v>776300</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>7822</t>
+          <t>7205</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>286</v>
+        <v>387.6000061035156</v>
       </c>
       <c r="D11" t="n">
-        <v>5129700</v>
+        <v>7808700</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>8887</t>
+          <t>7822</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>385</v>
+        <v>278</v>
       </c>
       <c r="D12" t="n">
-        <v>236300</v>
+        <v>7184100</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>9425</t>
+          <t>8705</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,16 +735,62 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>611</v>
+        <v>188</v>
       </c>
       <c r="D13" t="n">
-        <v>161400</v>
+        <v>788400</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>8887</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>383</v>
+      </c>
+      <c r="D14" t="n">
+        <v>272100</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>9425</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-08-13</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>664</v>
+      </c>
+      <c r="D15" t="n">
+        <v>375100</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
